--- a/projects/Project3_visualizing-real-world-data-project/Data/Restaurant Clean.xlsx
+++ b/projects/Project3_visualizing-real-world-data-project/Data/Restaurant Clean.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/borelliandrea/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/borelliandrea/Ironhack/dataptams2020/projects/Project3_visualizing-real-world-data-project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB55D4E-0059-3448-A6DD-96B5C9E9A0DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C779866-C24F-714E-AF87-272EAC7F3753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3646DBA0-D9FD-7645-98D3-AB1019E3CA71}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{3646DBA0-D9FD-7645-98D3-AB1019E3CA71}"/>
   </bookViews>
   <sheets>
     <sheet name="E088-1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Chinese restaurants</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -55,14 +55,6 @@
   </si>
   <si>
     <t>Miscellaneous eating and drinking places</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total restaurant receipts</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total restaurant purchases</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
@@ -91,6 +83,9 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>Total Horeca Receipts</t>
   </si>
 </sst>
 </file>
@@ -577,11 +572,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD2"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -591,16 +586,16 @@
     <col min="4" max="4" width="17.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="1" customWidth="1"/>
-    <col min="8" max="9" width="14.6640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -618,13 +613,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <v>2001</v>
       </c>
@@ -649,11 +641,8 @@
       <c r="H2" s="6">
         <v>14025.6</v>
       </c>
-      <c r="I2" s="6">
-        <v>4957.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>2002</v>
       </c>
@@ -678,11 +667,8 @@
       <c r="H3" s="6">
         <v>13726</v>
       </c>
-      <c r="I3" s="6">
-        <v>4714.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>2002</v>
       </c>
@@ -707,11 +693,8 @@
       <c r="H4" s="6">
         <v>13066.2</v>
       </c>
-      <c r="I4" s="6">
-        <v>4311.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>2002</v>
       </c>
@@ -736,11 +719,8 @@
       <c r="H5" s="6">
         <v>13378.4</v>
       </c>
-      <c r="I5" s="6">
-        <v>4593.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>2002</v>
       </c>
@@ -765,11 +745,8 @@
       <c r="H6" s="6">
         <v>13200.3</v>
       </c>
-      <c r="I6" s="6">
-        <v>4469.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>2003</v>
       </c>
@@ -794,11 +771,8 @@
       <c r="H7" s="6">
         <v>12551.1</v>
       </c>
-      <c r="I7" s="6">
-        <v>4277.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>2003</v>
       </c>
@@ -823,11 +797,8 @@
       <c r="H8" s="6">
         <v>10551.8</v>
       </c>
-      <c r="I8" s="6">
-        <v>3632.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>2003</v>
       </c>
@@ -852,11 +823,8 @@
       <c r="H9" s="6">
         <v>12375</v>
       </c>
-      <c r="I9" s="6">
-        <v>4112.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>2003</v>
       </c>
@@ -881,11 +849,8 @@
       <c r="H10" s="6">
         <v>12645.5</v>
       </c>
-      <c r="I10" s="6">
-        <v>4249.1000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>2004</v>
       </c>
@@ -910,11 +875,8 @@
       <c r="H11" s="6">
         <v>13018.4</v>
       </c>
-      <c r="I11" s="6">
-        <v>4323.6000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>2004</v>
       </c>
@@ -939,13 +901,10 @@
       <c r="H12" s="6">
         <v>12810.3</v>
       </c>
-      <c r="I12" s="6">
-        <v>4312.6000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" s="12">
         <v>3</v>
@@ -968,13 +927,10 @@
       <c r="H13" s="6">
         <v>13443.1</v>
       </c>
-      <c r="I13" s="6">
-        <v>4677.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" s="10">
         <v>4</v>
@@ -997,11 +953,8 @@
       <c r="H14" s="6">
         <v>13864</v>
       </c>
-      <c r="I14" s="6">
-        <v>4766</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>2005</v>
       </c>
@@ -1026,11 +979,8 @@
       <c r="H15" s="6">
         <v>13874</v>
       </c>
-      <c r="I15" s="6">
-        <v>4778</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="11">
         <v>2005</v>
       </c>
@@ -1055,11 +1005,8 @@
       <c r="H16" s="6">
         <v>13471</v>
       </c>
-      <c r="I16" s="6">
-        <v>4603</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>2005</v>
       </c>
@@ -1084,11 +1031,8 @@
       <c r="H17" s="6">
         <v>14322</v>
       </c>
-      <c r="I17" s="6">
-        <v>4963</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="11">
         <v>2005</v>
       </c>
@@ -1113,11 +1057,8 @@
       <c r="H18" s="6">
         <v>14840</v>
       </c>
-      <c r="I18" s="6">
-        <v>5045</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>2006</v>
       </c>
@@ -1142,11 +1083,8 @@
       <c r="H19" s="6">
         <v>15115</v>
       </c>
-      <c r="I19" s="6">
-        <v>5052</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="11">
         <v>2006</v>
       </c>
@@ -1171,11 +1109,8 @@
       <c r="H20" s="6">
         <v>14977</v>
       </c>
-      <c r="I20" s="6">
-        <v>5034</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>2006</v>
       </c>
@@ -1200,11 +1135,8 @@
       <c r="H21" s="6">
         <v>15354</v>
       </c>
-      <c r="I21" s="6">
-        <v>5205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="11">
         <v>2006</v>
       </c>
@@ -1229,11 +1161,8 @@
       <c r="H22" s="6">
         <v>16461</v>
       </c>
-      <c r="I22" s="6">
-        <v>5490</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>2007</v>
       </c>
@@ -1258,11 +1187,8 @@
       <c r="H23" s="6">
         <v>16908</v>
       </c>
-      <c r="I23" s="6">
-        <v>5799</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="11">
         <v>2007</v>
       </c>
@@ -1287,11 +1213,8 @@
       <c r="H24" s="6">
         <v>16707</v>
       </c>
-      <c r="I24" s="6">
-        <v>5729</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="11">
         <v>2007</v>
       </c>
@@ -1316,11 +1239,8 @@
       <c r="H25" s="6">
         <v>17705</v>
       </c>
-      <c r="I25" s="6">
-        <v>6065</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="11">
         <v>2007</v>
       </c>
@@ -1345,11 +1265,8 @@
       <c r="H26" s="6">
         <v>18882</v>
       </c>
-      <c r="I26" s="6">
-        <v>6649</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="11">
         <v>2008</v>
       </c>
@@ -1374,11 +1291,8 @@
       <c r="H27" s="6">
         <v>19593</v>
       </c>
-      <c r="I27" s="6">
-        <v>7156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="11">
         <v>2008</v>
       </c>
@@ -1403,11 +1317,8 @@
       <c r="H28" s="6">
         <v>19328</v>
       </c>
-      <c r="I28" s="6">
-        <v>6962</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="11">
         <v>2008</v>
       </c>
@@ -1432,11 +1343,8 @@
       <c r="H29" s="6">
         <v>20042</v>
       </c>
-      <c r="I29" s="6">
-        <v>7110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="11">
         <v>2008</v>
       </c>
@@ -1461,11 +1369,8 @@
       <c r="H30" s="6">
         <v>20427</v>
       </c>
-      <c r="I30" s="6">
-        <v>7219</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="11">
         <v>2009</v>
       </c>
@@ -1490,11 +1395,8 @@
       <c r="H31" s="6">
         <v>19870</v>
       </c>
-      <c r="I31" s="6">
-        <v>6915</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="11">
         <v>2009</v>
       </c>
@@ -1519,11 +1421,8 @@
       <c r="H32" s="6">
         <v>19194</v>
       </c>
-      <c r="I32" s="6">
-        <v>6619</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="11">
         <v>2009</v>
       </c>
@@ -1548,11 +1447,8 @@
       <c r="H33" s="6">
         <v>19984</v>
       </c>
-      <c r="I33" s="6">
-        <v>6907</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="11">
         <v>2009</v>
       </c>
@@ -1577,11 +1473,8 @@
       <c r="H34" s="6">
         <v>20832</v>
       </c>
-      <c r="I34" s="6">
-        <v>7199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="11">
         <v>2010</v>
       </c>
@@ -1606,11 +1499,8 @@
       <c r="H35" s="6">
         <v>20883</v>
       </c>
-      <c r="I35" s="6">
-        <v>7232</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="11">
         <v>2010</v>
       </c>
@@ -1635,11 +1525,8 @@
       <c r="H36" s="6">
         <v>20047</v>
       </c>
-      <c r="I36" s="6">
-        <v>7017</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="11">
         <v>2010</v>
       </c>
@@ -1664,11 +1551,8 @@
       <c r="H37" s="6">
         <v>21018</v>
       </c>
-      <c r="I37" s="6">
-        <v>7327</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="11">
         <v>2010</v>
       </c>
@@ -1693,11 +1577,8 @@
       <c r="H38" s="6">
         <v>22009</v>
       </c>
-      <c r="I38" s="6">
-        <v>7887</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="11">
         <v>2011</v>
       </c>
@@ -1722,11 +1603,8 @@
       <c r="H39" s="6">
         <v>22121</v>
       </c>
-      <c r="I39" s="6">
-        <v>8186</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="11">
         <v>2011</v>
       </c>
@@ -1751,11 +1629,8 @@
       <c r="H40" s="6">
         <v>21241</v>
       </c>
-      <c r="I40" s="6">
-        <v>7757</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="11">
         <v>2011</v>
       </c>
@@ -1780,11 +1655,8 @@
       <c r="H41" s="6">
         <v>22312</v>
       </c>
-      <c r="I41" s="6">
-        <v>8026</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="11">
         <v>2011</v>
       </c>
@@ -1809,11 +1681,8 @@
       <c r="H42" s="6">
         <v>23626</v>
       </c>
-      <c r="I42" s="6">
-        <v>8683</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="11">
         <v>2012</v>
       </c>
@@ -1838,11 +1707,8 @@
       <c r="H43" s="6">
         <v>23473</v>
       </c>
-      <c r="I43" s="6">
-        <v>8578</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="11">
         <v>2012</v>
       </c>
@@ -1867,11 +1733,8 @@
       <c r="H44" s="6">
         <v>22143</v>
       </c>
-      <c r="I44" s="6">
-        <v>7793</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="11">
         <v>2012</v>
       </c>
@@ -1896,11 +1759,8 @@
       <c r="H45" s="6">
         <v>23291</v>
       </c>
-      <c r="I45" s="6">
-        <v>8021</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="11">
         <v>2012</v>
       </c>
@@ -1925,11 +1785,8 @@
       <c r="H46" s="6">
         <v>24844</v>
       </c>
-      <c r="I46" s="6">
-        <v>8752</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="11">
         <v>2013</v>
       </c>
@@ -1954,11 +1811,8 @@
       <c r="H47" s="6">
         <v>24335</v>
       </c>
-      <c r="I47" s="6">
-        <v>8512</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="11">
         <v>2013</v>
       </c>
@@ -1983,11 +1837,8 @@
       <c r="H48" s="6">
         <v>23151</v>
       </c>
-      <c r="I48" s="6">
-        <v>7934</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="11">
         <v>2013</v>
       </c>
@@ -2012,11 +1863,8 @@
       <c r="H49" s="6">
         <v>24186</v>
       </c>
-      <c r="I49" s="6">
-        <v>8363</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="11">
         <v>2013</v>
       </c>
@@ -2041,11 +1889,8 @@
       <c r="H50" s="6">
         <v>25348</v>
       </c>
-      <c r="I50" s="6">
-        <v>8873</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="11">
         <v>2014</v>
       </c>
@@ -2070,11 +1915,8 @@
       <c r="H51" s="6">
         <v>25211</v>
       </c>
-      <c r="I51" s="6">
-        <v>8636</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="11">
         <v>2014</v>
       </c>
@@ -2099,11 +1941,8 @@
       <c r="H52" s="6">
         <v>24030</v>
       </c>
-      <c r="I52" s="6">
-        <v>8298</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="11">
         <v>2014</v>
       </c>
@@ -2128,11 +1967,8 @@
       <c r="H53" s="6">
         <v>25377</v>
       </c>
-      <c r="I53" s="6">
-        <v>8711</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="11">
         <v>2014</v>
       </c>
@@ -2157,11 +1993,8 @@
       <c r="H54" s="6">
         <v>25798</v>
       </c>
-      <c r="I54" s="6">
-        <v>8771</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="11">
         <v>2015</v>
       </c>
@@ -2186,11 +2019,8 @@
       <c r="H55" s="6">
         <v>26132</v>
       </c>
-      <c r="I55" s="6">
-        <v>8738</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="11">
         <v>2015</v>
       </c>
@@ -2215,11 +2045,8 @@
       <c r="H56" s="6">
         <v>25212</v>
       </c>
-      <c r="I56" s="6">
-        <v>8538</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="11">
         <v>2015</v>
       </c>
@@ -2244,11 +2071,8 @@
       <c r="H57" s="6">
         <v>26259</v>
       </c>
-      <c r="I57" s="6">
-        <v>8988</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="11">
         <v>2015</v>
       </c>
@@ -2273,11 +2097,8 @@
       <c r="H58" s="6">
         <v>26729</v>
       </c>
-      <c r="I58" s="6">
-        <v>8910</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="11">
         <v>2016</v>
       </c>
@@ -2302,11 +2123,8 @@
       <c r="H59" s="6">
         <v>26638</v>
       </c>
-      <c r="I59" s="6">
-        <v>8721</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="11">
         <v>2016</v>
       </c>
@@ -2331,11 +2149,8 @@
       <c r="H60" s="6">
         <v>25958</v>
       </c>
-      <c r="I60" s="6">
-        <v>8572</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="11">
         <v>2016</v>
       </c>
@@ -2360,11 +2175,8 @@
       <c r="H61" s="6">
         <v>26943</v>
       </c>
-      <c r="I61" s="6">
-        <v>9041</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="11">
         <v>2016</v>
       </c>
@@ -2389,11 +2201,8 @@
       <c r="H62" s="6">
         <v>27836</v>
       </c>
-      <c r="I62" s="6">
-        <v>9225</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="11">
         <v>2017</v>
       </c>
@@ -2418,11 +2227,8 @@
       <c r="H63" s="6">
         <v>27763</v>
       </c>
-      <c r="I63" s="6">
-        <v>8904</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="11">
         <v>2017</v>
       </c>
@@ -2447,11 +2253,8 @@
       <c r="H64" s="6">
         <v>26990</v>
       </c>
-      <c r="I64" s="6">
-        <v>8757</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="11">
         <v>2017</v>
       </c>
@@ -2476,11 +2279,8 @@
       <c r="H65" s="6">
         <v>28291</v>
       </c>
-      <c r="I65" s="6">
-        <v>9178</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="11">
         <v>2017</v>
       </c>
@@ -2505,11 +2305,8 @@
       <c r="H66" s="6">
         <v>29694</v>
       </c>
-      <c r="I66" s="6">
-        <v>9486</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="11">
         <v>2018</v>
       </c>
@@ -2534,11 +2331,8 @@
       <c r="H67" s="6">
         <v>30543</v>
       </c>
-      <c r="I67" s="6">
-        <v>9660</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="11">
         <v>2018</v>
       </c>
@@ -2563,11 +2357,8 @@
       <c r="H68" s="7">
         <v>28797</v>
       </c>
-      <c r="I68" s="7">
-        <v>9232</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="11">
         <v>2018</v>
       </c>
@@ -2592,16 +2383,13 @@
       <c r="H69" s="6">
         <v>29847</v>
       </c>
-      <c r="I69" s="6">
-        <v>9502</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="11">
         <v>2018</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C70" s="6">
         <v>13396</v>
@@ -2621,16 +2409,13 @@
       <c r="H70" s="6">
         <v>30368</v>
       </c>
-      <c r="I70" s="6">
-        <v>9644</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="11">
         <v>2019</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C71" s="6">
         <v>13385</v>
@@ -2650,16 +2435,13 @@
       <c r="H71" s="6">
         <v>31485</v>
       </c>
-      <c r="I71" s="6">
-        <v>9937</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="11">
         <v>2019</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C72" s="6">
         <v>11957</v>
@@ -2679,16 +2461,13 @@
       <c r="H72" s="6">
         <v>28642</v>
       </c>
-      <c r="I72" s="6">
-        <v>9280</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="11">
         <v>2019</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C73" s="6">
         <v>10741</v>
@@ -2708,16 +2487,13 @@
       <c r="H73" s="6">
         <v>26319</v>
       </c>
-      <c r="I73" s="6">
-        <v>8483</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="11">
         <v>2019</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C74" s="7">
         <v>10819</v>
@@ -2736,9 +2512,6 @@
       </c>
       <c r="H74" s="7">
         <v>26001</v>
-      </c>
-      <c r="I74" s="7">
-        <v>8385</v>
       </c>
     </row>
   </sheetData>
